--- a/medicine/Mort/Cimetière_national_de_Santa_Fe/Cimetière_national_de_Santa_Fe.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Santa_Fe/Cimetière_national_de_Santa_Fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Santa_Fe</t>
+          <t>Cimetière_national_de_Santa_Fe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Santa Fe (en anglais : Santa Fe National Cemetery) est un cimetière américain à Santa Fe, dans le comté de Santa Fe, au Nouveau-Mexique. Ce cimetière national comprend des bâtiments dans le style Pueblo Revival. Il est inscrit au Registre national des lieux historiques depuis le 6 septembre 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Santa_Fe</t>
+          <t>Cimetière_national_de_Santa_Fe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Santa_Fe</t>
+          <t>Cimetière_national_de_Santa_Fe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paul Bennewitz (1927-2005), ufologue ;
 Charles Bent (1799-1847), premier gouverneur du territoire du Nouveau-Mexique ;
